--- a/model_specifications/test_parameters_td.xlsx
+++ b/model_specifications/test_parameters_td.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06E2FE-EAB2-447C-BF9E-CAB0ADABD819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="702" yWindow="702" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>start_state</t>
   </si>
@@ -118,13 +119,16 @@
     <t>residual</t>
   </si>
   <si>
-    <t>time_dependent</t>
+    <t>time_dependent_gompertz</t>
+  </si>
+  <si>
+    <t>static</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,23 +439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.83984375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.15625" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="5" max="5" width="12.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -479,7 +483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -490,13 +494,13 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>0.50572799999999996</v>
+        <v>-1.3624080000000001</v>
       </c>
       <c r="E3">
-        <v>0.231929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.33633940000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -516,50 +520,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="16.41796875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
         <v>300</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -569,49 +582,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="2" width="12.41796875" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
         <v>0.85</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -621,20 +643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.578125" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +664,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -650,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -658,7 +680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -666,7 +688,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -680,20 +702,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.26171875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -701,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -709,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -717,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -725,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -733,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -741,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -749,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>

--- a/model_specifications/test_parameters_td.xlsx
+++ b/model_specifications/test_parameters_td.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A06E2FE-EAB2-447C-BF9E-CAB0ADABD819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA106908-BDEA-4829-887A-319E1975FB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="702" yWindow="702" windowWidth="14400" windowHeight="7374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1740" windowWidth="21075" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="utilities" sheetId="3" r:id="rId3"/>
     <sheet name="specification" sheetId="4" r:id="rId4"/>
-    <sheet name="condensed_states" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>start_state</t>
   </si>
@@ -41,9 +49,6 @@
     <t>death</t>
   </si>
   <si>
-    <t>remission</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -80,62 +85,34 @@
     <t>discount_rate</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mapping</t>
-  </si>
-  <si>
-    <t>remission_bv</t>
-  </si>
-  <si>
-    <t>remission_asct</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>rest_bv</t>
-  </si>
-  <si>
-    <t>rest_</t>
-  </si>
-  <si>
-    <t>treatment_bv_low</t>
-  </si>
-  <si>
-    <t>treatment_bv_med</t>
-  </si>
-  <si>
-    <t>treatment_bv_high</t>
-  </si>
-  <si>
-    <t>treatment_bv</t>
-  </si>
-  <si>
     <t>name_start_state</t>
   </si>
   <si>
     <t>residual</t>
   </si>
   <si>
-    <t>time_dependent_gompertz</t>
-  </si>
-  <si>
     <t>static</t>
+  </si>
+  <si>
+    <t>time_dependent_weibull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,22 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83984375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.15625" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
-    <col min="5" max="5" width="12.83984375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,16 +444,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -480,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,16 +472,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
         <v>-1.3624080000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>-0.33633940000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,6 +494,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -524,36 +508,36 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.41796875" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -562,12 +546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -586,35 +570,35 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.41796875" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0.85</v>
@@ -623,12 +607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -647,136 +631,53 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="21.26171875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/model_specifications/test_parameters_td.xlsx
+++ b/model_specifications/test_parameters_td.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA106908-BDEA-4829-887A-319E1975FB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E458A1-4312-4BEE-8230-50D566D75A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1740" windowWidth="21075" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="12540" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +432,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,11 +482,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
-        <v>-1.3624080000000001</v>
+      <c r="D3" s="3">
+        <v>-2.5941010000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.33633940000000001</v>
+        <v>0.60890999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/model_specifications/test_parameters_td.xlsx
+++ b/model_specifications/test_parameters_td.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E458A1-4312-4BEE-8230-50D566D75A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD608B1-3828-4920-B478-C781544EA091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="12540" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="1995" windowWidth="12540" windowHeight="12585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>start_state</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>time_dependent_weibull</t>
+  </si>
+  <si>
+    <t>parameter_3</t>
+  </si>
+  <si>
+    <t>parameter_4</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -429,22 +438,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +471,17 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -489,7 +509,7 @@
         <v>0.60890999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -503,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="D13" s="1"/>
     </row>
   </sheetData>
@@ -513,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +546,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -539,8 +559,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -554,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -575,10 +598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,7 +610,7 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -600,8 +623,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -615,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>

--- a/model_specifications/test_parameters_td.xlsx
+++ b/model_specifications/test_parameters_td.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD608B1-3828-4920-B478-C781544EA091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E86C14-065E-4484-B4B1-7A74922512F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="1995" windowWidth="12540" windowHeight="12585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="3000" windowWidth="25185" windowHeight="11940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>start_state</t>
   </si>
@@ -104,13 +104,25 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>parameter_5</t>
+  </si>
+  <si>
+    <t>parameter_6</t>
+  </si>
+  <si>
+    <t>parameter_7</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +142,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,17 +180,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,81 +504,115 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="10" width="13.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>-2.5941010000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.60890999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -536,7 +621,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,49 +632,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,7 +688,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,49 +698,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.85</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
